--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Cybersoft/Front-End/Bootstrap_PoochCare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECDDBCB8-F762-6E49-B8A6-AD6430464BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D902F6-E3BC-A847-A4FA-FC230A15EB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{C3E7325D-0D94-DF4A-9CFA-CD1E1FA3ED2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22400" xr2:uid="{C3E7325D-0D94-DF4A-9CFA-CD1E1FA3ED2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>Sidebar</t>
+  </si>
+  <si>
+    <t>16/5/2022</t>
+  </si>
+  <si>
+    <t>18/5/2022</t>
+  </si>
+  <si>
+    <t>17/5/2022</t>
   </si>
 </sst>
 </file>
@@ -488,18 +497,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0800F976-D968-1D4C-B1D8-3AD56DB3936B}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,170 +521,229 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -683,11 +751,10 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -695,21 +762,19 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Cybersoft/Front-End/Bootstrap_PoochCare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D902F6-E3BC-A847-A4FA-FC230A15EB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4190B5F9-4302-9546-9460-E1CE9A90A316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22400" xr2:uid="{C3E7325D-0D94-DF4A-9CFA-CD1E1FA3ED2C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -98,13 +98,25 @@
   </si>
   <si>
     <t>17/5/2022</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>Night mode</t>
+  </si>
+  <si>
+    <t>Video floating</t>
+  </si>
+  <si>
+    <t>19/5/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +157,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,7 +518,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,36 +718,84 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -777,6 +843,7 @@
       <c r="I14" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Cybersoft/Front-End/Bootstrap_PoochCare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4190B5F9-4302-9546-9460-E1CE9A90A316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D791419-7030-CA40-AF2D-ED53FD3D2B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22400" xr2:uid="{C3E7325D-0D94-DF4A-9CFA-CD1E1FA3ED2C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>19/5/2022</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Testimonial</t>
+  </si>
+  <si>
+    <t>Subcribe</t>
+  </si>
+  <si>
+    <t>Footer</t>
   </si>
 </sst>
 </file>
@@ -188,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -201,6 +216,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0800F976-D968-1D4C-B1D8-3AD56DB3936B}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,10 +815,12 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -810,10 +828,12 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -821,10 +841,12 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -832,16 +854,23 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Cybersoft/Front-End/Bootstrap_PoochCare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D791419-7030-CA40-AF2D-ED53FD3D2B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F347AC6B-BDF4-8049-94A4-4C3F3607DA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22400" xr2:uid="{C3E7325D-0D94-DF4A-9CFA-CD1E1FA3ED2C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -125,13 +125,25 @@
   </si>
   <si>
     <t>Footer</t>
+  </si>
+  <si>
+    <t>13/5/2022</t>
+  </si>
+  <si>
+    <t>14/5/2022</t>
+  </si>
+  <si>
+    <t>15/5/2022</t>
+  </si>
+  <si>
+    <t>Mai Vu Hoang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +194,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -216,7 +235,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +554,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,7 +811,7 @@
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -818,57 +838,134 @@
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
